--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -36,9 +36,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=i+1%&gt;</t>
-  </si>
-  <si>
     <t>采购申请单</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -111,15 +108,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%#"=SUM(A1+A2)"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~rs1.due_dt%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -147,6 +136,60 @@
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rs1.due_dt%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i+1%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -155,7 +198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -212,6 +255,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -281,9 +331,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -310,11 +357,14 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -619,7 +669,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -660,7 +710,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -673,27 +723,27 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="17" customFormat="1" ht="29.25" customHeight="1">
-      <c r="C3" s="18" t="s">
+    <row r="3" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1">
+      <c r="C3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="I3" s="18"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="19" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="4.5" customHeight="1"/>
@@ -702,16 +752,16 @@
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>1</v>
@@ -723,205 +773,205 @@
         <v>3</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="L5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="A6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A7" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="13"/>
+      <c r="A7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B8" s="11"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="13"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B9" s="11"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="13"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B10" s="11"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="13"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B11" s="11"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="13"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B12" s="11"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="13"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B13" s="11"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B15" s="11"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="13"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" ht="18.75" customHeight="1">
-      <c r="B16" s="11"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="13"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="12"/>
     </row>
     <row r="17" spans="2:12" ht="18.75" customHeight="1">
-      <c r="B17" s="11"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="13"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="18" spans="2:12" ht="27.75" customHeight="1">
       <c r="B18" s="5"/>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="7"/>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>5</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L18" s="7"/>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="195" windowWidth="17235" windowHeight="8415"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="14685" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>序号</t>
   </si>
@@ -188,6 +188,29 @@
       </rPr>
       <t>i+1%&gt;</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_img_("./1.png",{})%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>aaaaaaaaaaaaaaaaaaa</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=""%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -379,6 +402,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57143</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="QQ截图20140211132926.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2581275" y="1685925"/>
+          <a:ext cx="57143" cy="76190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -666,10 +732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -829,7 +895,9 @@
     <row r="8" spans="1:12" ht="18.75" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
+      <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -975,11 +1043,20 @@
       </c>
       <c r="L18" s="7"/>
     </row>
+    <row r="20" spans="2:12">
+      <c r="C20" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="7.874015748031496E-2" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>序号</t>
   </si>
@@ -211,6 +211,14 @@
   </si>
   <si>
     <t>&lt;%=""%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~"批准123"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~"123"%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -369,9 +377,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -388,6 +393,9 @@
     </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -735,7 +743,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -789,26 +797,26 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="16" customFormat="1" ht="29.25" customHeight="1">
-      <c r="C3" s="17" t="s">
+    <row r="3" spans="1:12" s="15" customFormat="1" ht="29.25" customHeight="1">
+      <c r="C3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="17" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="17" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="18" t="s">
+      <c r="L3" s="17" t="s">
         <v>18</v>
       </c>
     </row>
@@ -849,10 +857,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -864,7 +872,7 @@
       <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="9"/>
@@ -875,7 +883,7 @@
       <c r="L6" s="9"/>
     </row>
     <row r="7" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="10" t="s">
@@ -1029,8 +1037,12 @@
       <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
+      <c r="D18" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
         <v>5</v>
@@ -1044,10 +1056,10 @@
       <c r="L18" s="7"/>
     </row>
     <row r="20" spans="2:12">
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="D20" s="14" t="s">
         <v>31</v>
       </c>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -130,6 +130,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>:</t>
@@ -159,6 +160,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>rs1.due_dt%&gt;</t>
@@ -184,6 +186,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>i+1%&gt;</t>
@@ -203,6 +206,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>aaaaaaaaaaaaaaaaaaa</t>
@@ -239,23 +243,27 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -264,12 +272,14 @@
       <sz val="14"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -277,6 +287,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -742,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -798,6 +809,10 @@
       <c r="L2" s="2"/>
     </row>
     <row r="3" spans="1:12" s="15" customFormat="1" ht="29.25" customHeight="1">
+      <c r="A3" s="15">
+        <f>SUM(A1,A2)</f>
+        <v>3</v>
+      </c>
       <c r="C3" s="16" t="s">
         <v>14</v>
       </c>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -194,10 +194,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%_img_("./1.png",{})%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>a</t>
     </r>
@@ -223,6 +219,10 @@
   </si>
   <si>
     <t>&lt;%~"123"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_img_("./1.png")%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +754,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -919,7 +919,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1053,10 +1053,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>32</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>33</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
@@ -1072,10 +1072,10 @@
     </row>
     <row r="20" spans="2:12">
       <c r="C20" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>序号</t>
   </si>
@@ -105,36 +105,6 @@
   </si>
   <si>
     <t>&lt;%=rs1.des2%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=SUM(A1+A2)"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>动态公式,用#表示</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,~在加上设置单元格格式,就可以输出日期格式,数字格式等</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -210,10 +180,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%=""%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%~"批准123"%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -223,6 +189,38 @@
   </si>
   <si>
     <t>&lt;%_img_("./1.png")%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态公式,用#表示,~在加上设置单元格格式,就可以输出日期格式,数字格式等.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM("+_cell+6+"+"+_cell+(_row-1)+")"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM(A1,A2)"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>内置变量_row代表当前行的行数:整型,例如:12, _cell代表当前列,例如:F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>, _rc代表单元格名字,例如:F12</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -291,13 +289,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
@@ -396,17 +387,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -751,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -774,12 +765,14 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.75" customHeight="1">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1">
       <c r="A1" s="3">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="2"/>
+      <c r="C1" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -789,8 +782,11 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" customHeight="1">
+      <c r="M1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="18.75" customHeight="1">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -808,7 +804,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" s="15" customFormat="1" ht="29.25" customHeight="1">
+    <row r="3" spans="1:13" s="15" customFormat="1" ht="29.25" customHeight="1">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
@@ -835,8 +831,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="4.5" customHeight="1"/>
-    <row r="5" spans="1:12" ht="24">
+    <row r="4" spans="1:13" ht="4.5" customHeight="1"/>
+    <row r="5" spans="1:13" ht="24">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -871,12 +867,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.75" customHeight="1">
+    <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
@@ -887,8 +883,8 @@
       <c r="E6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>27</v>
+      <c r="F6" s="18" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -897,12 +893,12 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" ht="18.75" customHeight="1">
-      <c r="A7" s="18" t="s">
-        <v>25</v>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A7" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -915,11 +911,11 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" ht="18.75" customHeight="1">
+    <row r="8" spans="1:13" ht="18.75" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -930,7 +926,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
     </row>
-    <row r="9" spans="1:12" ht="18.75" customHeight="1">
+    <row r="9" spans="1:13" ht="18.75" customHeight="1">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -943,7 +939,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
     </row>
-    <row r="10" spans="1:12" ht="18.75" customHeight="1">
+    <row r="10" spans="1:13" ht="18.75" customHeight="1">
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -956,7 +952,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" ht="18.75" customHeight="1">
+    <row r="11" spans="1:13" ht="18.75" customHeight="1">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -969,7 +965,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1">
+    <row r="12" spans="1:13" ht="18.75" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -982,7 +978,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" ht="18.75" customHeight="1">
+    <row r="13" spans="1:13" ht="18.75" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -995,7 +991,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1">
+    <row r="14" spans="1:13" ht="18.75" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1008,7 +1004,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:12" ht="18.75" customHeight="1">
+    <row r="15" spans="1:13" ht="18.75" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1021,7 +1017,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" ht="18.75" customHeight="1">
+    <row r="16" spans="1:13" ht="18.75" customHeight="1">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1052,11 +1048,11 @@
       <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>32</v>
+      <c r="D18" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>29</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
@@ -1072,10 +1068,10 @@
     </row>
     <row r="20" spans="2:12">
       <c r="C20" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -200,27 +200,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%#"=SUM("+_cell+6+"+"+_cell+(_row-1)+")"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%#"=SUM(A1,A2)"%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>内置变量_row代表当前行的行数:整型,例如:12, _cell代表当前列,例如:F</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>, _rc代表单元格名字,例如:F12</t>
-    </r>
+    <t>&lt;%#"=SUM("+_col+6+"+"+_col+(_row-1)+")"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -744,7 +732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
@@ -898,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1071,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -188,10 +188,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%_img_("./1.png")%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>动态公式,用#表示,~在加上设置单元格格式,就可以输出日期格式,数字格式等.</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -209,6 +205,10 @@
   </si>
   <si>
     <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_img_({imgPh:"./1.png",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +733,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -771,7 +771,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1">
@@ -883,10 +883,10 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -903,7 +903,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1059,7 +1059,7 @@
         <v>27</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="14685" windowHeight="4200"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>序号</t>
   </si>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>&lt;%=rs1.des2%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -210,6 +206,24 @@
   <si>
     <t>&lt;%_img_({imgPh:"./1.png",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%="forCell代表循环一列"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCell key in ["pt","des","des2","due_dt"]%&gt;&lt;%=rs1[key]%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
   </si>
 </sst>
 </file>
@@ -730,10 +744,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -759,7 +774,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -771,7 +786,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="18.75" customHeight="1">
@@ -857,10 +872,10 @@
     </row>
     <row r="6" spans="1:13" ht="18.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
@@ -872,7 +887,7 @@
         <v>23</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -883,10 +898,10 @@
     </row>
     <row r="7" spans="1:13" ht="18.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -903,7 +918,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -928,13 +943,18 @@
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A10" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
@@ -954,8 +974,13 @@
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" customHeight="1">
+      <c r="A12" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="B12" s="10"/>
-      <c r="C12" s="9"/>
+      <c r="C12" s="9" t="s">
+        <v>38</v>
+      </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1037,10 +1062,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>28</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>29</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
@@ -1056,10 +1081,10 @@
     </row>
     <row r="20" spans="2:12">
       <c r="C20" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>序号</t>
   </si>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%#"=SUM("+_col+6+"+"+_col+(_row-1)+")"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -224,6 +220,119 @@
   </si>
   <si>
     <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
+  </si>
+  <si>
+    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
+  </si>
+  <si>
+    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=_col%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_charPlus_(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -745,10 +854,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -768,7 +877,7 @@
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -786,10 +895,10 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="18.75" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -806,8 +915,20 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" spans="1:13" s="15" customFormat="1" ht="29.25" customHeight="1">
+      <c r="M2" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
@@ -834,8 +955,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="4.5" customHeight="1"/>
-    <row r="5" spans="1:13" ht="24">
+    <row r="4" spans="1:16" ht="4.5" customHeight="1"/>
+    <row r="5" spans="1:16" ht="24">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -870,9 +991,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="18.75" customHeight="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>25</v>
@@ -896,12 +1017,12 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="18.75" customHeight="1">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -914,11 +1035,11 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:13" ht="18.75" customHeight="1">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -928,8 +1049,11 @@
       <c r="J8" s="11"/>
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
-    </row>
-    <row r="9" spans="1:13" ht="18.75" customHeight="1">
+      <c r="M8" s="14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -941,10 +1065,13 @@
       <c r="J9" s="11"/>
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
-    </row>
-    <row r="10" spans="1:13" ht="18.75" customHeight="1">
+      <c r="M9" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -953,14 +1080,14 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -973,13 +1100,13 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:13" ht="18.75" customHeight="1">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -991,7 +1118,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:13" ht="18.75" customHeight="1">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1004,7 +1131,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:13" ht="18.75" customHeight="1">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1017,7 +1144,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:13" ht="18.75" customHeight="1">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1030,7 +1157,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:13" ht="18.75" customHeight="1">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="14685" windowHeight="4200"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>序号</t>
   </si>
@@ -331,6 +331,169 @@
         <charset val="134"/>
       </rPr>
       <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%var isTr = true;%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifRBegin isTr%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;%ifRBegin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>isTr%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%ifREnd(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%ifREnd(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTr为true,所以这一行就生成了</t>
+  </si>
+  <si>
+    <r>
+      <t>ifRBegin配合ifREnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表中间的行是否生成出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,中间的R指Row,行</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!isTr为false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,所以中间这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行都不会生成</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -407,12 +570,36 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -447,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,6 +696,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -854,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1170,7 +1375,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1">
+    <row r="17" spans="1:12" ht="18.75" customHeight="1">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1183,7 +1388,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="2:12" ht="27.75" customHeight="1">
+    <row r="18" spans="1:12" ht="27.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
@@ -1206,12 +1411,52 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="1:12">
       <c r="C20" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:12" s="22" customFormat="1">
+      <c r="A25" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="23"/>
+      <c r="J25" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="27" customFormat="1">
+      <c r="A28" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" s="24" customFormat="1"/>
+    <row r="30" spans="1:12" s="25" customFormat="1"/>
+    <row r="31" spans="1:12">
+      <c r="A31" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -381,34 +381,47 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;%ifREnd(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>)%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%ifREnd(</t>
+    <t>isTr为true,所以这一行就生成了</t>
+  </si>
+  <si>
+    <r>
+      <t>ifRBegin配合ifREnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表中间的行是否生成出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,中间的R指Row,行</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!isTr为false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,所以中间这</t>
     </r>
     <r>
       <rPr>
@@ -428,72 +441,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>)%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isTr为true,所以这一行就生成了</t>
-  </si>
-  <si>
-    <r>
-      <t>ifRBegin配合ifREnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>代表中间的行是否生成出来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,中间的R指Row,行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>!isTr为false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,所以中间这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
       <t>行都不会生成</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%ifREnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1061,8 +1025,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1432,16 +1396,16 @@
         <v>47</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H25" s="23"/>
       <c r="J25" s="22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:12" s="27" customFormat="1">
@@ -1449,14 +1413,14 @@
         <v>48</v>
       </c>
       <c r="E28" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:12" s="24" customFormat="1"/>
     <row r="30" spans="1:12" s="25" customFormat="1"/>
     <row r="31" spans="1:12">
       <c r="A31" s="14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -336,26 +336,6 @@
   </si>
   <si>
     <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%var isTr = true;%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifRBegin isTr%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">&lt;%ifRBegin </t>
     </r>
     <r>
@@ -459,6 +439,33 @@
       </rPr>
       <t>%&gt;</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%var isTr = true;%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forRBegin key in ["key1","key2"]%&gt;&lt;%ifRBegin isTr%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifREnd%&gt;&lt;%forREnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCEnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCEnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCBegin false%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCBegin str in ["a","b"]%&gt;&lt;%=str%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -469,7 +476,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -533,8 +540,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +578,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -598,7 +623,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -677,6 +702,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1023,10 +1060,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1383,44 +1420,65 @@
         <v>31</v>
       </c>
     </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="A24" s="14"/>
       <c r="C24" s="14"/>
       <c r="E24" s="14"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:12" s="22" customFormat="1">
       <c r="A25" s="23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H25" s="23"/>
       <c r="J25" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="28" customFormat="1">
+      <c r="C26" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="14"/>
+    </row>
+    <row r="30" spans="1:12" s="27" customFormat="1">
+      <c r="A30" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" s="27" customFormat="1">
-      <c r="A28" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" s="24" customFormat="1"/>
-    <row r="30" spans="1:12" s="25" customFormat="1"/>
-    <row r="31" spans="1:12">
-      <c r="A31" s="14" t="s">
-        <v>52</v>
+    <row r="31" spans="1:12" s="24" customFormat="1"/>
+    <row r="32" spans="1:12" s="25" customFormat="1"/>
+    <row r="33" spans="1:1">
+      <c r="A33" s="14" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -466,6 +466,17 @@
   </si>
   <si>
     <t>&lt;%forCBegin str in ["a","b"]%&gt;&lt;%=str%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCEnd%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forCBegin key in ["列1","列2"]%&gt;&lt;%=key%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面这效果专业术语我把它叫做"循环合并单元格"功能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -623,7 +634,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -714,6 +725,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1060,10 +1083,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1476,12 +1499,30 @@
     </row>
     <row r="31" spans="1:12" s="24" customFormat="1"/>
     <row r="32" spans="1:12" s="25" customFormat="1"/>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:4">
       <c r="A33" s="14" t="s">
         <v>50</v>
       </c>
     </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="14.25">
+      <c r="A36" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="35"/>
+      <c r="C36" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" s="33"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A36:B36"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="7.874015748031496E-2" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -208,275 +208,276 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCell key in ["pt","des","des2","due_dt"]%&gt;&lt;%=rs1[key]%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
+  </si>
+  <si>
+    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
+  </si>
+  <si>
+    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=_col%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_charPlus_(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;%ifRBegin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>isTr%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTr为true,所以这一行就生成了</t>
+  </si>
+  <si>
+    <r>
+      <t>ifRBegin配合ifREnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表中间的行是否生成出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,中间的R指Row,行</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!isTr为false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,所以中间这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行都不会生成</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%ifREnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%var isTr = true;%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forRBegin key in ["key1","key2"]%&gt;&lt;%ifRBegin isTr%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifREnd%&gt;&lt;%forREnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCEnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCEnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCBegin false%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCBegin str in ["a","b"]%&gt;&lt;%=str%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCEnd%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forCBegin key in ["列1","列2"]%&gt;&lt;%=key%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面这效果专业术语我把它叫做"循环合并单元格"功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%="forCell代表循环一列"%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_[1]%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCell key in ["pt","des","des2","due_dt"]%&gt;&lt;%=rs1[key]%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
-  </si>
-  <si>
-    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
-  </si>
-  <si>
-    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=_col%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_charPlus_(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_col</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;%ifRBegin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>isTr%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isTr为true,所以这一行就生成了</t>
-  </si>
-  <si>
-    <r>
-      <t>ifRBegin配合ifREnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>代表中间的行是否生成出来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,中间的R指Row,行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>!isTr为false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,所以中间这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行都不会生成</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%ifREnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%var isTr = true;%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forRBegin key in ["key1","key2"]%&gt;&lt;%ifRBegin isTr%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifREnd%&gt;&lt;%forREnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCEnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifCEnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifCBegin false%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCBegin str in ["a","b"]%&gt;&lt;%=str%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCEnd%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forCBegin key in ["列1","列2"]%&gt;&lt;%=key%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面这效果专业术语我把它叫做"循环合并单元格"功能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1085,8 +1086,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1145,16 +1146,16 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>44</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1">
@@ -1251,7 +1252,7 @@
         <v>30</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1279,7 +1280,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1">
@@ -1295,12 +1296,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>35</v>
+      <c r="A10" s="14" t="s">
+        <v>60</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1309,7 +1310,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -1331,11 +1332,11 @@
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1445,7 +1446,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1456,34 +1457,34 @@
     </row>
     <row r="25" spans="1:12" s="22" customFormat="1">
       <c r="A25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25" s="23"/>
       <c r="J25" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1">
       <c r="C26" s="31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1491,31 +1492,31 @@
     </row>
     <row r="30" spans="1:12" s="27" customFormat="1">
       <c r="A30" s="26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="24" customFormat="1"/>
     <row r="32" spans="1:12" s="25" customFormat="1"/>
     <row r="33" spans="1:4">
       <c r="A33" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25">
       <c r="A36" s="34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B36" s="35"/>
       <c r="C36" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D36" s="33"/>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -473,11 +473,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>下面这效果专业术语我把它叫做"循环合并单元格"功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%="forCell代表循环一列"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面这效果专业术语我把它叫做"循环合并单元格"功能&amp;&lt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1086,8 +1086,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1301,7 +1301,7 @@
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1507,7 +1507,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25">

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -230,254 +230,302 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_charPlus_(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;%ifRBegin </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>isTr%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isTr为true,所以这一行就生成了</t>
+  </si>
+  <si>
+    <r>
+      <t>ifRBegin配合ifREnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>代表中间的行是否生成出来</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,中间的R指Row,行</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>!isTr为false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,所以中间这</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>行都不会生成</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%ifREnd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%var isTr = true;%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forRBegin key in ["key1","key2"]%&gt;&lt;%ifRBegin isTr%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifREnd%&gt;&lt;%forREnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCEnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCEnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCBegin false%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCBegin str in ["a","b"]%&gt;&lt;%=str%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCEnd%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%forCBegin key in ["列1","列2"]%&gt;&lt;%=key%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%="forCell代表循环一列"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面这效果专业术语我把它叫做"循环合并单元格"功能&amp;&lt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%=_col%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;%=_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_charPlus_(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_col</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;%ifRBegin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>isTr%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isTr为true,所以这一行就生成了</t>
-  </si>
-  <si>
-    <r>
-      <t>ifRBegin配合ifREnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>代表中间的行是否生成出来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,中间的R指Row,行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>!isTr为false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,所以中间这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行都不会生成</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%ifREnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%var isTr = true;%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forRBegin key in ["key1","key2"]%&gt;&lt;%ifRBegin isTr%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifREnd%&gt;&lt;%forREnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCEnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifCEnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifCBegin false%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCBegin str in ["a","b"]%&gt;&lt;%=str%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCEnd%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forCBegin key in ["列1","列2"]%&gt;&lt;%=key%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%="forCell代表循环一列"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面这效果专业术语我把它叫做"循环合并单元格"功能&amp;&lt;</t>
+    <t>&lt;%_mergeCellFn_(_col+_row+":"+_charPlus_(_col,3)+(_row+4))%&gt;&lt;%="合并之后"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_mergeCellFn_("C"+_row+":D"+(_row+1))%&gt;&lt;%="合并之后"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态合并单元格功能(如需合并后居中,请在模板中对应单元格点击[居中]按钮):</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_mergeCellFn_("C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>")%&gt;&lt;%="合并之后"%&gt;</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +607,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -602,6 +650,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -635,7 +695,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -734,11 +794,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1084,10 +1153,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1135,7 +1204,9 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1146,16 +1217,16 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1">
@@ -1301,7 +1372,7 @@
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1446,7 +1517,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1457,34 +1528,34 @@
     </row>
     <row r="25" spans="1:12" s="22" customFormat="1">
       <c r="A25" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" s="23"/>
       <c r="J25" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:12" s="28" customFormat="1">
       <c r="C26" s="31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="29"/>
       <c r="E26" s="30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1492,33 +1563,48 @@
     </row>
     <row r="30" spans="1:12" s="27" customFormat="1">
       <c r="A30" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:12" s="24" customFormat="1"/>
     <row r="32" spans="1:12" s="25" customFormat="1"/>
     <row r="33" spans="1:4">
       <c r="A33" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25">
-      <c r="A36" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="B36" s="35"/>
+      <c r="A36" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="37"/>
       <c r="C36" s="32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D36" s="33"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="C39" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="C43" s="34" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>序号</t>
   </si>
@@ -160,8 +160,62 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>a</t>
+    <t>&lt;%~"批准123"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~"123"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态公式,用#表示,~在加上设置单元格格式,就可以输出日期格式,数字格式等.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM(A1,A2)"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_img_({imgPh:"./1.png",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCell key in ["pt","des","des2","due_dt"]%&gt;&lt;%=rs1[key]%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
+  </si>
+  <si>
+    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
+  </si>
+  <si>
+    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
     </r>
     <r>
       <rPr>
@@ -171,62 +225,18 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>aaaaaaaaaaaaaaaaaaa</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~"批准123"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~"123"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态公式,用#表示,~在加上设置单元格格式,就可以输出日期格式,数字格式等.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=SUM(A1,A2)"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%_img_({imgPh:"./1.png",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_[1]%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCell key in ["pt","des","des2","due_dt"]%&gt;&lt;%=rs1[key]%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
-  </si>
-  <si>
-    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
-  </si>
-  <si>
-    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -241,7 +251,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>row</t>
+      <t>r</t>
     </r>
     <r>
       <rPr>
@@ -251,13 +261,75 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
+      <t>c%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_charPlus_(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
       <t>%&gt;</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;%=_</t>
+    <t>&lt;%="forCell代表循环一列"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=_col%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_mergeCellFn_("C"+_row+":D"+(_row+1))%&gt;&lt;%="合并之后"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态合并单元格功能(如需合并后居中,请在模板中对应单元格点击[居中]按钮):</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_mergeCellFn_("C2</t>
     </r>
     <r>
       <rPr>
@@ -267,7 +339,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>r</t>
+      <t>:</t>
     </r>
     <r>
       <rPr>
@@ -277,13 +349,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>c%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=</t>
+      <t>E2</t>
     </r>
     <r>
       <rPr>
@@ -293,7 +359,13 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>_charPlus_(</t>
+      <t>")%&gt;&lt;%="合并之后"%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
     </r>
     <r>
       <rPr>
@@ -303,229 +375,23 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>_col</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;%ifRBegin </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>isTr%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isTr为true,所以这一行就生成了</t>
-  </si>
-  <si>
-    <r>
-      <t>ifRBegin配合ifREnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>代表中间的行是否生成出来</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,中间的R指Row,行</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>!isTr为false</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,所以中间这</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>行都不会生成</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%ifREnd</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%var isTr = true;%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forRBegin key in ["key1","key2"]%&gt;&lt;%ifRBegin isTr%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifREnd%&gt;&lt;%forREnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCEnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifCEnd%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%ifCBegin false%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCBegin str in ["a","b"]%&gt;&lt;%=str%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCEnd%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%forCBegin key in ["列1","列2"]%&gt;&lt;%=key%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%="forCell代表循环一列"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面这效果专业术语我把它叫做"循环合并单元格"功能&amp;&lt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=_col%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%_mergeCellFn_(_col+_row+":"+_charPlus_(_col,3)+(_row+4))%&gt;&lt;%="合并之后"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%_mergeCellFn_("C"+_row+":D"+(_row+1))%&gt;&lt;%="合并之后"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态合并单元格功能(如需合并后居中,请在模板中对应单元格点击[居中]按钮):</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%_mergeCellFn_("C2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>")%&gt;&lt;%="合并之后"%&gt;</t>
-    </r>
+      <t>ld1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态公式:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%var fld1="测试值"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%_mergeCellFn_(_col+_row+":"+_charPlus_(_col,3)+(_row+3))%&gt;&lt;%="合并之后"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点(公式模板):使用公式来编写模板,当然公式以计算的结果&lt;%配对时,则启用公式模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -536,7 +402,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -600,14 +466,8 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="10">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -617,36 +477,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,55 +588,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1153,10 +941,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1182,7 +970,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1194,7 +982,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1">
@@ -1204,11 +992,10 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>64</v>
-      </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="E2" s="24" t="s">
+        <v>47</v>
+      </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -1217,16 +1004,16 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1">
@@ -1294,7 +1081,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>25</v>
@@ -1320,10 +1107,10 @@
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1340,7 +1127,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1351,7 +1138,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1">
@@ -1367,12 +1154,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1381,7 +1168,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -1403,11 +1190,11 @@
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1471,7 +1258,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" ht="18.75" customHeight="1">
+    <row r="17" spans="2:12" ht="18.75" customHeight="1">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1484,16 +1271,16 @@
       <c r="K17" s="9"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="1:12" ht="27.75" customHeight="1">
+    <row r="18" spans="2:12" ht="27.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>27</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>28</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
@@ -1507,109 +1294,49 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="2:12">
       <c r="C20" s="14" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" s="22" customFormat="1">
-      <c r="A25" s="23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="C24" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="C25" s="23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="C28" s="22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="C32" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="23"/>
-      <c r="J25" s="22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" s="28" customFormat="1">
-      <c r="C26" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="14"/>
-    </row>
-    <row r="30" spans="1:12" s="27" customFormat="1">
-      <c r="A30" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" s="24" customFormat="1"/>
-    <row r="32" spans="1:12" s="25" customFormat="1"/>
-    <row r="33" spans="1:4">
-      <c r="A33" s="14" t="s">
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="14.25">
-      <c r="A36" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="33"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="C39" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="C40" s="35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="C43" s="34" t="s">
-        <v>61</v>
+    <row r="34" spans="3:3">
+      <c r="C34" s="14" t="str">
+        <f>"&lt;%="&amp;C33&amp;"%&gt;"</f>
+        <v>&lt;%=fld1%&gt;</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A36:B36"/>
-  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="7.874015748031496E-2" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="14685" windowHeight="4200"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
+    <sheet name="链接测试" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -100,298 +101,298 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>&lt;%=rs1.des2%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rs1.due_dt%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>i+1%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~"批准123"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~"123"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态公式,用#表示,~在加上设置单元格格式,就可以输出日期格式,数字格式等.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM(A1,A2)"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_img_({imgPh:"./1.png",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forRow rs1,i in _data_[1]%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%forCell key in ["pt","des","des2","due_dt"]%&gt;&lt;%=rs1[key]%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
+  </si>
+  <si>
+    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
+  </si>
+  <si>
+    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_charPlus_(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%="forCell代表循环一列"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=_col%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_mergeCellFn_("C"+_row+":D"+(_row+1))%&gt;&lt;%="合并之后"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态合并单元格功能(如需合并后居中,请在模板中对应单元格点击[居中]按钮):</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_mergeCellFn_("C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>")%&gt;&lt;%="合并之后"%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ld1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态公式:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%var fld1="测试值"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%_mergeCellFn_(_col+_row+":"+_charPlus_(_col,3)+(_row+3))%&gt;&lt;%="合并之后"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点(公式模板):使用公式来编写模板,当然公式以计算的结果&lt;%配对时,则启用公式模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%=rs1.des%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.des2%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rs1.due_dt%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>i+1%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~"批准123"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%~"123"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态公式,用#表示,~在加上设置单元格格式,就可以输出日期格式,数字格式等.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=SUM(A1,A2)"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>内置变量_row代表当前行的行数:整型,例如:12, _col代表当前列,例如:F, _rc代表单元格名字,例如:F12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%_img_({imgPh:"./1.png",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forRow rs1,i in _data_[1]%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%forCell key in ["pt","des","des2","due_dt"]%&gt;&lt;%=rs1[key]%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
-  </si>
-  <si>
-    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
-  </si>
-  <si>
-    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_charPlus_(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_col</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%="forCell代表循环一列"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=_col%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%_mergeCellFn_("C"+_row+":D"+(_row+1))%&gt;&lt;%="合并之后"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态合并单元格功能(如需合并后居中,请在模板中对应单元格点击[居中]按钮):</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%_mergeCellFn_("C2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>")%&gt;&lt;%="合并之后"%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ld1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态公式:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%var fld1="测试值"%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%_mergeCellFn_(_col+_row+":"+_charPlus_(_col,3)+(_row+3))%&gt;&lt;%="合并之后"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能点(公式模板):使用公式来编写模板,当然公式以计算的结果&lt;%配对时,则启用公式模板</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -402,7 +403,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -466,6 +467,18 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -517,15 +530,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,10 +614,14 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规_jappSpsPoGrn" xfId="1"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -635,7 +656,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -943,8 +964,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -970,7 +991,7 @@
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -982,7 +1003,7 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="18.75" customHeight="1">
@@ -994,7 +1015,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1004,16 +1025,16 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1">
@@ -1081,22 +1102,22 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1107,10 +1128,10 @@
     </row>
     <row r="7" spans="1:16" ht="18.75" customHeight="1">
       <c r="A7" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1127,7 +1148,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1138,7 +1159,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1">
@@ -1154,12 +1175,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1168,7 +1189,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -1190,11 +1211,11 @@
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1277,10 +1298,10 @@
         <v>4</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>26</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
@@ -1296,38 +1317,38 @@
     </row>
     <row r="20" spans="2:12">
       <c r="C20" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="2:12">
       <c r="C24" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="C25" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="C28" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="C32" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="3:3">
@@ -1338,10 +1359,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D6" location="链接测试!A1" display="&lt;%=rs1.des%&gt;"/>
+  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="7.874015748031496E-2" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="11" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>序号</t>
   </si>
@@ -393,6 +393,141 @@
   </si>
   <si>
     <t>&lt;%=rs1.des%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对行分组功能:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"%&gt;&lt;%_outlineLevel_(1)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;%="a0"%&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%_outlineLevel_(1)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1"%&gt;&lt;%_outlineLevel_(2)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0"%&gt;&lt;%_outlineLevel_(2)%&gt;</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -962,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1355,6 +1490,31 @@
       <c r="C34" s="14" t="str">
         <f>"&lt;%="&amp;C33&amp;"%&gt;"</f>
         <v>&lt;%=fld1%&gt;</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>序号</t>
   </si>
@@ -197,336 +197,395 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
+  </si>
+  <si>
+    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>row</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>c%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_charPlus_(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_col</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%="forCell代表循环一列"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=_col%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_mergeCellFn_("C"+_row+":D"+(_row+1))%&gt;&lt;%="合并之后"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态合并单元格功能(如需合并后居中,请在模板中对应单元格点击[居中]按钮):</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_mergeCellFn_("C2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>E2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>")%&gt;&lt;%="合并之后"%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>f</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ld1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态公式:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%var fld1="测试值"%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%_mergeCellFn_(_col+_row+":"+_charPlus_(_col,3)+(_row+3))%&gt;&lt;%="合并之后"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点(公式模板):使用公式来编写模板,当然公式以计算的结果&lt;%配对时,则启用公式模板</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=rs1.des%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>针对行分组功能:</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>a1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"%&gt;&lt;%_outlineLevel_(1)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;%="a0"%&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%_outlineLevel_(1)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1"%&gt;&lt;%_outlineLevel_(2)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0"%&gt;&lt;%_outlineLevel_(2)%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>生成二维码方法:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> size二维码图片大小默认为5, cellNumAdd图片占用列数,rowNumAdd图片占用行数</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%_qrcode_({text:"黄智勇",size:8,cellNumAdd:3,rowNumAdd:8})%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>调用图片api需要模板至少已经有一张图片,或者透明的小图片</t>
-  </si>
-  <si>
-    <t>包括 宏 公式, 控件, 图表  密码, 只读属性  等等</t>
-  </si>
-  <si>
-    <t>要知道一点,很关键 ejsExcel 的模板 是可以使用Excel的任意功能的</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=SUM("+(_col+6)+"+"+_col+(_row-1)+")"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>row</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>r</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>c%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_charPlus_(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>_col</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,3)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%="forCell代表循环一列"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=_col%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%_mergeCellFn_("C"+_row+":D"+(_row+1))%&gt;&lt;%="合并之后"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态合并单元格功能(如需合并后居中,请在模板中对应单元格点击[居中]按钮):</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%_mergeCellFn_("C2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>")%&gt;&lt;%="合并之后"%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ld1</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>动态公式:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%var fld1="测试值"%&gt;</t>
-  </si>
-  <si>
-    <t>&lt;%_mergeCellFn_(_col+_row+":"+_charPlus_(_col,3)+(_row+3))%&gt;&lt;%="合并之后"%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能点(公式模板):使用公式来编写模板,当然公式以计算的结果&lt;%配对时,则启用公式模板</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=rs1.des%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>针对行分组功能:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>a1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>"%&gt;&lt;%_outlineLevel_(1)%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;%="a0"%&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%_outlineLevel_(1)%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1"%&gt;&lt;%_outlineLevel_(2)%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;%="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0"%&gt;&lt;%_outlineLevel_(2)%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>注意:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跟_img_一样,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>调用二维码api需要模板至少已经有一张图片,或者透明的小图片</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1097,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1150,7 +1209,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1160,16 +1219,16 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>40</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1">
@@ -1246,7 +1305,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>22</v>
@@ -1266,7 +1325,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1294,7 +1353,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1">
@@ -1310,12 +1369,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1324,7 +1383,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -1452,7 +1511,7 @@
     </row>
     <row r="20" spans="2:12">
       <c r="C20" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>29</v>
@@ -1460,61 +1519,74 @@
     </row>
     <row r="24" spans="2:12">
       <c r="C24" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="C25" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="C28" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="C32" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="C33" s="14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="C34" s="14" t="str">
         <f>"&lt;%="&amp;C33&amp;"%&gt;"</f>
         <v>&lt;%=fld1%&gt;</v>
       </c>
     </row>
-    <row r="37" spans="3:3">
+    <row r="37" spans="1:11">
       <c r="C37" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="C38" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="C39" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="C40" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="C41" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="3:3">
-      <c r="C38" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="3:3">
-      <c r="C39" s="3" t="s">
+    <row r="44" spans="1:11">
+      <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="40" spans="3:3">
-      <c r="C40" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="41" spans="3:3">
-      <c r="C41" s="3" t="s">
-        <v>54</v>
+      <c r="K44" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
     <sheet name="链接测试" sheetId="5" r:id="rId2"/>
+    <sheet name="被隐藏的工作簿" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>序号</t>
   </si>
@@ -586,6 +587,38 @@
         <charset val="134"/>
       </rPr>
       <t>调用二维码api需要模板至少已经有一张图片,或者透明的小图片</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>%_hideWorkbook_(["被隐藏的工作簿"])%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>_hideWorkbook_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>函数,方法,用于隐藏指定的工作簿, 参数为一个需要被隐藏的工作簿的数组</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1156,10 +1189,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1587,6 +1620,16 @@
     <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1615,4 +1658,19 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="14685" windowHeight="4200"/>
@@ -9,14 +9,15 @@
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
     <sheet name="链接测试" sheetId="5" r:id="rId2"/>
-    <sheet name="被隐藏的工作簿" sheetId="6" r:id="rId3"/>
+    <sheet name="被隐藏的工作表" sheetId="6" r:id="rId3"/>
+    <sheet name="被删除的工作表" sheetId="8" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>序号</t>
   </si>
@@ -591,36 +592,20 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>%_hideWorkbook_(["被隐藏的工作簿"])%&gt;</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>_hideWorkbook_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>函数,方法,用于隐藏指定的工作簿, 参数为一个需要被隐藏的工作簿的数组</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>_hideSheet_方法:用于隐藏当前工作表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;% if(true) { %&gt;&lt;%_deleteSheet_()%&gt;&lt;% } %&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;% if(true) { %&gt;&lt;%_hideSheet_()%&gt;&lt;% } %&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>_hideSheet_方法:用于删除当前工作表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1189,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1620,16 +1605,6 @@
     <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1662,14 +1637,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="13.5">
+      <c r="A1" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5">
+      <c r="A2" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -183,10 +183,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;%_img_({imgPh:"./1.png",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;%forRow rs1,i in _data_[1]%&gt;&lt;%="forRow代表循环一行"%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -606,6 +602,10 @@
   <si>
     <t>_hideSheet_方法:用于删除当前工作表</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_img_({imgPh:"./1.png",cNvPrName:"图片名称(可不填)",cNvPrDescr:"图片描述(可不填)",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1177,7 +1177,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1237,16 +1237,16 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1">
@@ -1314,7 +1314,7 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1">
       <c r="A6" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>24</v>
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>22</v>
@@ -1343,7 +1343,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1360,7 +1360,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1371,7 +1371,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="18.75" customHeight="1">
@@ -1387,12 +1387,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="18.75" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1401,7 +1401,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
@@ -1423,11 +1423,11 @@
     </row>
     <row r="12" spans="1:16" ht="18.75" customHeight="1">
       <c r="A12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1529,7 +1529,7 @@
     </row>
     <row r="20" spans="2:12">
       <c r="C20" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>29</v>
@@ -1537,30 +1537,30 @@
     </row>
     <row r="24" spans="2:12">
       <c r="C24" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:12">
       <c r="C25" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="C28" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="2:12">
       <c r="C32" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:11">
       <c r="C33" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1571,40 +1571,40 @@
     </row>
     <row r="37" spans="1:11">
       <c r="C37" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="C38" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="C39" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:11">
       <c r="C40" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="C41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1647,12 +1647,12 @@
   <sheetData>
     <row r="1" spans="1:1" s="3" customFormat="1" ht="13.5">
       <c r="A1" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5">
       <c r="A2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1673,12 +1673,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -11,13 +11,14 @@
     <sheet name="链接测试" sheetId="5" r:id="rId2"/>
     <sheet name="被隐藏的工作表" sheetId="6" r:id="rId3"/>
     <sheet name="被删除的工作表" sheetId="8" r:id="rId4"/>
+    <sheet name="被显示的工作表" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>序号</t>
   </si>
@@ -593,10 +594,6 @@
   </si>
   <si>
     <t>&lt;% if(true) { %&gt;&lt;%_deleteSheet_()%&gt;&lt;% } %&gt;</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;% if(true) { %&gt;&lt;%_hideSheet_()%&gt;&lt;% } %&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -606,6 +603,18 @@
   <si>
     <t>&lt;%_img_({imgPh:"./1.png",cNvPrName:"图片名称(可不填)",cNvPrDescr:"图片描述(可不填)",cellNumAdd:2,rowNumAdd:2})%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;% if(true) { %&gt;&lt;%_hideSheet_()%&gt;&lt;% } %&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%_showSheet_()%&gt;</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>_showSheet_方法:用于显示当前被隐藏的工作表</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1360,7 +1369,7 @@
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1625,7 +1634,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1640,7 +1649,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1652,7 +1661,7 @@
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5">
       <c r="A2" s="14" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1665,20 +1674,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5">
       <c r="A2" s="14" t="s">
         <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hugjs\ejsExcel\test\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BE96CF-1639-4E99-B5D1-25B22A0AC1BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="14685" windowHeight="4200"/>
+    <workbookView xWindow="0" yWindow="2772" windowWidth="14688" windowHeight="4200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -13,12 +19,12 @@
     <sheet name="被删除的工作表" sheetId="8" r:id="rId4"/>
     <sheet name="被显示的工作表" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <si>
     <t>序号</t>
   </si>
@@ -615,16 +621,31 @@
   <si>
     <t>_showSheet_方法:用于显示当前被隐藏的工作表</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCBegin "1"==="1"%&gt;&lt;%="abcd--ifCBegin"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCEnd%&gt;</t>
+  </si>
+  <si>
+    <t>&lt;%ifCBegin "1"==="2"%&gt;&lt;%="abcd--ifCBegin"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%ifCEnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -841,7 +862,7 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规_jappSpsPoGrn" xfId="1"/>
+    <cellStyle name="常规_jappSpsPoGrn" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -849,6 +870,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -871,7 +895,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="QQ截图20140211132926.png"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="QQ截图20140211132926.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -898,7 +928,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -940,7 +970,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -972,9 +1002,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1006,6 +1054,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1181,32 +1247,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.69921875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.09765625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.8984375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.19921875" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
@@ -1227,7 +1293,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1">
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1258,7 +1324,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1">
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
@@ -1285,8 +1351,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="4.5" customHeight="1"/>
-    <row r="5" spans="1:16" ht="24">
+    <row r="4" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1387,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>31</v>
       </c>
@@ -1347,7 +1413,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>28</v>
       </c>
@@ -1365,7 +1431,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
@@ -1383,7 +1449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1">
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1399,7 +1465,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
@@ -1417,7 +1483,7 @@
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1430,7 +1496,7 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>32</v>
       </c>
@@ -1448,7 +1514,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1461,7 +1527,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1474,7 +1540,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1487,7 +1553,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1500,7 +1566,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:12" ht="18.75" customHeight="1">
+    <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1513,7 +1579,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="2:12" ht="27.75" customHeight="1">
+    <row r="18" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
@@ -1536,7 +1602,7 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
         <v>46</v>
       </c>
@@ -1544,22 +1610,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:12">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L21" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M21" s="14"/>
+      <c r="P21" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="L22" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="2:12">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C25" s="23" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:12">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" s="22" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="2:12">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" s="14" t="s">
         <v>49</v>
       </c>
@@ -1567,43 +1650,43 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="str">
         <f>"&lt;%="&amp;C33&amp;"%&gt;"</f>
         <v>&lt;%=fld1%&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
@@ -1611,7 +1694,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
@@ -1619,7 +1702,7 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D6" location="链接测试!A1" display="&lt;%=rs1.des%&gt;"/>
+    <hyperlink ref="D6" location="链接测试!A1" display="&lt;%=rs1.des%&gt;" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="7.874015748031496E-2" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1630,14 +1713,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1645,21 +1728,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="13.5">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5">
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>64</v>
       </c>
@@ -1671,19 +1754,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5">
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>61</v>
       </c>
@@ -1695,19 +1778,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>66</v>
       </c>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\hugjs\ejsExcel\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\ejsExcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BE96CF-1639-4E99-B5D1-25B22A0AC1BC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40375219-DC96-4C29-8669-3CE2CD11BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2772" windowWidth="14688" windowHeight="4200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="被删除的工作表" sheetId="8" r:id="rId4"/>
     <sheet name="被显示的工作表" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>序号</t>
   </si>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>批准:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>审核:</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -635,6 +631,14 @@
   </si>
   <si>
     <t>&lt;%ifCEnd%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%~new Date("2019-09-08 22:12:31")%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>输出日期格式(设置单元格为日期格式):</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -712,6 +716,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -719,6 +724,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -784,7 +790,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,6 +863,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1251,34 +1260,34 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.69921875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.59765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.8984375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.6875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.1875" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.19921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.1875" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -1290,19 +1299,19 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1312,61 +1321,61 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="17" t="s">
         <v>14</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>15</v>
       </c>
       <c r="E3" s="17"/>
       <c r="F3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="17" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="16"/>
       <c r="J3" s="17"/>
       <c r="K3" s="16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:16" ht="24" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>1</v>
@@ -1378,33 +1387,33 @@
         <v>3</v>
       </c>
       <c r="J5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>12</v>
-      </c>
       <c r="L5" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>23</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
@@ -1413,12 +1422,12 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1431,11 +1440,11 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1446,10 +1455,10 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1462,12 +1471,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1476,14 +1485,14 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1496,13 +1505,13 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1514,7 +1523,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1527,7 +1536,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1540,7 +1549,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1553,7 +1562,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1566,7 +1575,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1579,124 +1588,126 @@
       <c r="K17" s="9"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="E18" s="20" t="s">
-        <v>26</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="H18" s="7"/>
+        <v>71</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>70</v>
+      </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C20" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
       <c r="L21" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M21" s="14"/>
       <c r="P21" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
       <c r="L22" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C24" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C25" s="23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
       <c r="C28" s="22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="C32" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C32" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C33" s="14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C34" s="14" t="str">
         <f>"&lt;%="&amp;C33&amp;"%&gt;"</f>
         <v>&lt;%=fld1%&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C37" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C39" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C40" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C41" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C38" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C39" s="3" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A44" s="3" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C40" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A44" s="3" t="s">
+      <c r="K44" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A45" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1720,7 +1731,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1735,16 +1746,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1759,16 +1770,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1783,16 +1794,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\ejsExcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40375219-DC96-4C29-8669-3CE2CD11BA90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCFCD7E-4B07-43DB-AB60-AC7E6CCAB6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="26116" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2180" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -19,12 +19,12 @@
     <sheet name="被删除的工作表" sheetId="8" r:id="rId4"/>
     <sheet name="被显示的工作表" sheetId="9" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>序号</t>
   </si>
@@ -175,10 +175,6 @@
   </si>
   <si>
     <t>合计:</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%#"=SUM(A1,A2)"%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -639,6 +635,14 @@
   </si>
   <si>
     <t>输出日期格式(设置单元格为日期格式):</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=SUM(A1,A2)"%&gt;&lt;%~3%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>动态公式需要将公式计算的结果提前用js计算好, 放到后面~3, 这样就能解决WPS打开之后动态公式显示成0, 双击单元格之后才会自动计算的问题</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -790,7 +794,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -841,14 +845,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
@@ -1260,33 +1261,33 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="3.6875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="5.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.1875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.58203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.58203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.08203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="5.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="11.1875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <v>1</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="2"/>
@@ -1299,10 +1300,10 @@
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -1310,8 +1311,8 @@
         <v>5</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="24" t="s">
-        <v>43</v>
+      <c r="E2" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1321,19 +1322,19 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:16" s="15" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15">
         <f>SUM(A1,A2)</f>
         <v>3</v>
@@ -1360,8 +1361,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="1:16" ht="25.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:16" ht="26" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1396,9 +1397,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>23</v>
@@ -1406,8 +1407,8 @@
       <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>49</v>
+      <c r="D6" s="24" t="s">
+        <v>48</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>21</v>
@@ -1422,12 +1423,12 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1440,11 +1441,11 @@
       <c r="K7" s="9"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1455,10 +1456,10 @@
       <c r="K8" s="9"/>
       <c r="L8" s="12"/>
       <c r="M8" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1471,12 +1472,12 @@
       <c r="K9" s="9"/>
       <c r="L9" s="12"/>
       <c r="M9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9"/>
@@ -1485,14 +1486,14 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="11"/>
       <c r="K10" s="9"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1505,13 +1506,13 @@
       <c r="K11" s="9"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -1523,7 +1524,7 @@
       <c r="K12" s="9"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1536,7 +1537,7 @@
       <c r="K13" s="9"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1549,7 +1550,7 @@
       <c r="K14" s="9"/>
       <c r="L14" s="12"/>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1562,7 +1563,7 @@
       <c r="K15" s="9"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1575,7 +1576,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1588,23 +1589,23 @@
       <c r="K17" s="9"/>
       <c r="L17" s="12"/>
     </row>
-    <row r="18" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:16" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F18" s="7"/>
       <c r="G18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="26" t="s">
         <v>70</v>
+      </c>
+      <c r="H18" s="25" t="s">
+        <v>69</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -1613,101 +1614,104 @@
       </c>
       <c r="L18" s="7"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="L21" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M21" s="14"/>
       <c r="P21" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="L22" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P22" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C24" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C25" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C28" s="22" t="s">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C25" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="C32" s="14" t="s">
-        <v>48</v>
-      </c>
       <c r="I32" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C33" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C34" s="14" t="str">
         <f>"&lt;%="&amp;C33&amp;"%&gt;"</f>
         <v>&lt;%=fld1%&gt;</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C38" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C39" s="3" t="s">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C40" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="C41" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A44" s="3" t="s">
+      <c r="K44" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +1735,7 @@
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1746,16 +1750,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1770,16 +1774,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" ht="13.5" x14ac:dyDescent="0.4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" s="3" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1794,16 +1798,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\ejsExcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DCFCD7E-4B07-43DB-AB60-AC7E6CCAB6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F17B494-D724-4E45-92A7-6175169042D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2180" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>序号</t>
   </si>
@@ -643,6 +643,10 @@
   </si>
   <si>
     <t>动态公式需要将公式计算的结果提前用js计算好, 放到后面~3, 这样就能解决WPS打开之后动态公式显示成0, 双击单元格之后才会自动计算的问题</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%#"=A1&amp;A2"%&gt;&lt;%="12"%&gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -794,7 +798,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,6 +871,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1261,8 +1268,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1619,9 @@
       <c r="K18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="26" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C20" s="14" t="s">

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\ejsExcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F17B494-D724-4E45-92A7-6175169042D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E6E75-DEB3-40B4-A152-3212E78415A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -798,7 +798,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,9 +868,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
@@ -1269,7 +1266,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1619,7 +1616,7 @@
       <c r="K18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="26" t="s">
+      <c r="L18" s="5" t="s">
         <v>73</v>
       </c>
     </row>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hugjs\ejsExcel\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537E6E75-DEB3-40B4-A152-3212E78415A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDBEE90-5A6C-442E-A8DE-570C8D2D23D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="7590" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申请单" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>序号</t>
   </si>
@@ -647,6 +647,74 @@
   </si>
   <si>
     <t>&lt;%#"=A1&amp;A2"%&gt;&lt;%="12"%&gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>文档说明:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_dataValidation_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> 为内置函数, 给指定单元格范围提供动态下拉框的能力</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_dataValidation_({sqref:`${ _rc }:${ _col }1048576`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,formula1:'"测试3,测试4"'})%&gt;</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;%_dataValidation_({sqref:`H2`</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,formula1:'"测试3,测试4"'})%&gt;</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -798,7 +866,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,9 +936,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -942,9 +1007,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -982,9 +1047,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,26 +1082,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1069,26 +1117,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1263,10 +1294,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -1608,7 +1639,7 @@
       <c r="G18" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="25" t="s">
+      <c r="H18" s="5" t="s">
         <v>69</v>
       </c>
       <c r="I18" s="7"/>
@@ -1718,6 +1749,19 @@
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F49" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M49" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="6:13" x14ac:dyDescent="0.25">
+      <c r="F51" s="14" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
